--- a/training/output/Resnet34_ViT/W/W1_W2.xlsx
+++ b/training/output/Resnet34_ViT/W/W1_W2.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B101"/>
+  <dimension ref="A1:B201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -447,178 +447,178 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0.4608333333333334</v>
+        <v>0.44625</v>
       </c>
       <c r="B2" t="n">
-        <v>3.12341794013977</v>
+        <v>2.655286371707916</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>0.7858333333333333</v>
+        <v>0.8277083333333334</v>
       </c>
       <c r="B3" t="n">
-        <v>2.491524248123169</v>
+        <v>2.031841486692429</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>0.8608333333333333</v>
+        <v>0.9193750000000001</v>
       </c>
       <c r="B4" t="n">
-        <v>2.249140524864197</v>
+        <v>1.731285691261292</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>0.8808333333333332</v>
+        <v>0.939375</v>
       </c>
       <c r="B5" t="n">
-        <v>2.048701682090759</v>
+        <v>1.553833067417145</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>0.9233333333333333</v>
+        <v>0.944375</v>
       </c>
       <c r="B6" t="n">
-        <v>1.912166075706482</v>
+        <v>1.407267153263092</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>0.9283333333333332</v>
+        <v>0.9722916666666667</v>
       </c>
       <c r="B7" t="n">
-        <v>1.77528468132019</v>
+        <v>1.325986862182617</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>0.9358333333333333</v>
+        <v>0.9670833333333334</v>
       </c>
       <c r="B8" t="n">
-        <v>1.762682547569275</v>
+        <v>1.247097998857498</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>0.9558333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B9" t="n">
-        <v>1.746180701255798</v>
+        <v>1.199139446020126</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>0.9525</v>
+        <v>0.9747916666666666</v>
       </c>
       <c r="B10" t="n">
-        <v>1.661353716850281</v>
+        <v>1.175989508628845</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>0.9583333333333333</v>
+        <v>0.9772916666666666</v>
       </c>
       <c r="B11" t="n">
-        <v>1.62973913192749</v>
+        <v>1.105031609535217</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>0.965</v>
+        <v>0.98</v>
       </c>
       <c r="B12" t="n">
-        <v>1.629088535308838</v>
+        <v>1.055962055921555</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B13" t="n">
-        <v>1.567999534606934</v>
+        <v>1.072712510824203</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>0.9708333333333333</v>
+        <v>0.9470833333333334</v>
       </c>
       <c r="B14" t="n">
-        <v>1.572024812698364</v>
+        <v>1.075551331043243</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>0.9783333333333333</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B15" t="n">
-        <v>1.541512098312378</v>
+        <v>1.027478039264679</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9775</v>
       </c>
       <c r="B16" t="n">
-        <v>1.530084257125854</v>
+        <v>0.991483747959137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>0.975</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>1.538756122589111</v>
+        <v>0.9616375118494034</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9875</v>
       </c>
       <c r="B18" t="n">
-        <v>1.526649832725525</v>
+        <v>0.9462075233459473</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B19" t="n">
-        <v>1.523369517326355</v>
+        <v>0.9590146243572235</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>1.51375422000885</v>
+        <v>0.9459122568368912</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>0.9733333333333333</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>1.488774561882019</v>
+        <v>0.9328522533178329</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>0.9725</v>
+        <v>0.99</v>
       </c>
       <c r="B22" t="n">
-        <v>1.484269599914551</v>
+        <v>0.9094500243663788</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>0.9825</v>
+        <v>0.99</v>
       </c>
       <c r="B23" t="n">
-        <v>1.465525317192078</v>
+        <v>0.9144970327615738</v>
       </c>
     </row>
     <row r="24">
@@ -626,111 +626,111 @@
         <v>0.99</v>
       </c>
       <c r="B24" t="n">
-        <v>1.469455094337463</v>
+        <v>0.9049613773822784</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>0.9633333333333333</v>
+        <v>0.99</v>
       </c>
       <c r="B25" t="n">
-        <v>1.469053845405579</v>
+        <v>0.891473799943924</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>0.9825</v>
+        <v>0.99</v>
       </c>
       <c r="B26" t="n">
-        <v>1.464926056861877</v>
+        <v>0.8865830898284912</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9875</v>
       </c>
       <c r="B27" t="n">
-        <v>1.457169246673584</v>
+        <v>0.8953402489423752</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>0.9758333333333333</v>
+        <v>0.97</v>
       </c>
       <c r="B28" t="n">
-        <v>1.437730913162231</v>
+        <v>0.866798609495163</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>1.447207417488098</v>
+        <v>0.8555707633495331</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>0.9775</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>1.458075728416443</v>
+        <v>0.8545007258653641</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>0.9825</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>1.449931149482727</v>
+        <v>0.8758074641227722</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>0.9725</v>
+        <v>0.985</v>
       </c>
       <c r="B32" t="n">
-        <v>1.457129778861999</v>
+        <v>0.8560812920331955</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>0.985</v>
+        <v>0.9875</v>
       </c>
       <c r="B33" t="n">
-        <v>1.436935911178589</v>
+        <v>0.8414223045110703</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>0.99</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>1.42782793045044</v>
+        <v>0.8447894901037216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>0.99</v>
+        <v>0.9875</v>
       </c>
       <c r="B35" t="n">
-        <v>1.426565923690796</v>
+        <v>0.8199105113744736</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.985</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>1.420845074653625</v>
+        <v>0.8282390087842941</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.99</v>
+        <v>0.9924999999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>1.421165533065796</v>
+        <v>0.8220233768224716</v>
       </c>
     </row>
     <row r="38">
@@ -738,15 +738,15 @@
         <v>0.9875</v>
       </c>
       <c r="B38" t="n">
-        <v>1.417679705619812</v>
+        <v>0.8189201354980469</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.9875</v>
+        <v>0.9824999999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>1.421004905700683</v>
+        <v>0.8282852470874786</v>
       </c>
     </row>
     <row r="40">
@@ -754,495 +754,1295 @@
         <v>0.985</v>
       </c>
       <c r="B40" t="n">
-        <v>1.423244209289551</v>
+        <v>0.8850322365760803</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.9875</v>
+        <v>0.9597916666666667</v>
       </c>
       <c r="B41" t="n">
-        <v>1.431539063453674</v>
+        <v>0.8346403390169144</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.985</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B42" t="n">
-        <v>1.419425525665283</v>
+        <v>0.8111730366945267</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9875</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B43" t="n">
-        <v>1.416086497306824</v>
+        <v>0.8112333565950394</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>0.9875</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B44" t="n">
-        <v>1.418491687774658</v>
+        <v>0.7962814718484879</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>0.985</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B45" t="n">
-        <v>1.422050867080688</v>
+        <v>0.7915885597467422</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>0.985</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B46" t="n">
-        <v>1.418617286682129</v>
+        <v>0.8539273738861084</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>0.985</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B47" t="n">
-        <v>1.410869917869568</v>
+        <v>0.814566507935524</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>0.9875</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B48" t="n">
-        <v>1.432013840675354</v>
+        <v>0.7962405234575272</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>0.9825</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B49" t="n">
-        <v>1.44469446182251</v>
+        <v>0.7943893820047379</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>0.9758333333333333</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B50" t="n">
-        <v>1.422296314239502</v>
+        <v>0.7931126207113266</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B51" t="n">
-        <v>1.415712943077087</v>
+        <v>0.8106842488050461</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>0.9925</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B52" t="n">
-        <v>1.423164753913879</v>
+        <v>0.8174132257699966</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>0.9783333333333333</v>
+        <v>0.9770833333333334</v>
       </c>
       <c r="B53" t="n">
-        <v>1.431225228309631</v>
+        <v>0.7811292260885239</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>0.9733333333333333</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B54" t="n">
-        <v>1.472162008285522</v>
+        <v>0.7863190919160843</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>0.985</v>
+        <v>0.9795833333333334</v>
       </c>
       <c r="B55" t="n">
-        <v>1.416299395561218</v>
+        <v>0.7848828285932541</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>0.98</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B56" t="n">
-        <v>1.42880763053894</v>
+        <v>0.7782913148403168</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B57" t="n">
-        <v>1.441533732414246</v>
+        <v>0.7774337977170944</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>0.9725</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B58" t="n">
-        <v>1.425241274833679</v>
+        <v>0.77367003262043</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>0.9658333333333333</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B59" t="n">
-        <v>1.415878176689148</v>
+        <v>0.7777843922376633</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>0.9858333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B60" t="n">
-        <v>1.405048489570618</v>
+        <v>0.7698195576667786</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>0.9833333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B61" t="n">
-        <v>1.420648684501648</v>
+        <v>0.8185662180185318</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>0.99</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B62" t="n">
-        <v>1.438778581619263</v>
+        <v>0.7844127416610718</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>0.995</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B63" t="n">
-        <v>1.452699537277222</v>
+        <v>0.7885586619377136</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>0.9825</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B64" t="n">
-        <v>1.441502923965454</v>
+        <v>0.7895081788301468</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>0.9758333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B65" t="n">
-        <v>1.423101096153259</v>
+        <v>0.7722935229539871</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>0.9683333333333333</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B66" t="n">
-        <v>1.415559115409851</v>
+        <v>0.774720087647438</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>0.9925</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B67" t="n">
-        <v>1.422790985107422</v>
+        <v>0.7761170417070389</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>0.99</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B68" t="n">
-        <v>1.408395533561706</v>
+        <v>0.7763144820928574</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B69" t="n">
-        <v>1.407509799003601</v>
+        <v>0.7772621065378189</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B70" t="n">
-        <v>1.404817395210266</v>
+        <v>0.7706726342439651</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B71" t="n">
-        <v>1.402324714660645</v>
+        <v>0.7649063020944595</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B72" t="n">
-        <v>1.410332627296448</v>
+        <v>0.7730952352285385</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>0.9925</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B73" t="n">
-        <v>1.42649965763092</v>
+        <v>0.7821760475635529</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>0.975</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B74" t="n">
-        <v>1.442745962142944</v>
+        <v>0.7789384424686432</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B75" t="n">
-        <v>1.416141028404236</v>
+        <v>0.7700083553791046</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>0.9925</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B76" t="n">
-        <v>1.406485829353332</v>
+        <v>0.7737220972776413</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>0.99</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B77" t="n">
-        <v>1.410687885284424</v>
+        <v>0.7593402415513992</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
-        <v>0.9925</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B78" t="n">
-        <v>1.404139709472656</v>
+        <v>0.7699135690927505</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B79" t="n">
-        <v>1.403145184516907</v>
+        <v>0.7536593377590179</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
-        <v>0.995</v>
+        <v>0.9797916666666666</v>
       </c>
       <c r="B80" t="n">
-        <v>1.404933834075928</v>
+        <v>0.7639782726764679</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
-        <v>0.9608333333333333</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B81" t="n">
-        <v>1.432038493156433</v>
+        <v>0.7717249840497971</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
-        <v>0.9825</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B82" t="n">
-        <v>1.407326459884644</v>
+        <v>0.754713699221611</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B83" t="n">
-        <v>1.409143857955933</v>
+        <v>0.7527054250240326</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B84" t="n">
-        <v>1.405633249282837</v>
+        <v>0.75203737616539</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B85" t="n">
-        <v>1.400475111007691</v>
+        <v>0.7591770142316818</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B86" t="n">
-        <v>1.404345030784607</v>
+        <v>0.7488950937986374</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B87" t="n">
-        <v>1.401149435043335</v>
+        <v>0.773039698600769</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
-        <v>1</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B88" t="n">
-        <v>1.400459537506104</v>
+        <v>0.7588244825601578</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B89" t="n">
-        <v>1.401200995445252</v>
+        <v>0.7631609886884689</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B90" t="n">
-        <v>1.399297871589661</v>
+        <v>0.768352136015892</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>1</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B91" t="n">
-        <v>1.402089104652405</v>
+        <v>0.7562829852104187</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B92" t="n">
-        <v>1.400186219215393</v>
+        <v>0.7530710995197296</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>0.9975000000000001</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B93" t="n">
-        <v>1.408022222518921</v>
+        <v>0.7482124269008636</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
-        <v>0.9875</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B94" t="n">
-        <v>1.423825783729553</v>
+        <v>0.7583194524049759</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
-        <v>0.995</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B95" t="n">
-        <v>1.406314735412598</v>
+        <v>0.7419274300336838</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
-        <v>0.9925</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B96" t="n">
-        <v>1.41734112739563</v>
+        <v>0.7453995794057846</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="n">
-        <v>0.98</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B97" t="n">
-        <v>1.435449604988098</v>
+        <v>0.7463250458240509</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="n">
-        <v>0.985</v>
+        <v>0.9847916666666666</v>
       </c>
       <c r="B98" t="n">
-        <v>1.404701037406921</v>
+        <v>0.755624994635582</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="n">
-        <v>0.99</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B99" t="n">
-        <v>1.408981037139893</v>
+        <v>0.7468810230493546</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>0.99</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B100" t="n">
-        <v>1.399140853881836</v>
+        <v>0.7626412957906723</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="n">
-        <v>0.99</v>
+        <v>0.9822916666666667</v>
       </c>
       <c r="B101" t="n">
-        <v>1.416429986953735</v>
+        <v>0.742306724190712</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B102" t="n">
+        <v>0.7409767359495163</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B103" t="n">
+        <v>0.7446472495794296</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B104" t="n">
+        <v>0.7510360479354858</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B105" t="n">
+        <v>0.7544161677360535</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B106" t="n">
+        <v>0.7397004514932632</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B107" t="n">
+        <v>0.7398222088813782</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>0.9847916666666666</v>
+      </c>
+      <c r="B108" t="n">
+        <v>0.7727699130773544</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B109" t="n">
+        <v>0.7479730397462845</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B110" t="n">
+        <v>0.7458660304546356</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B111" t="n">
+        <v>0.7505880296230316</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B112" t="n">
+        <v>0.7481378167867661</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B113" t="n">
+        <v>0.7399566024541855</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B114" t="n">
+        <v>0.7355154901742935</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B115" t="n">
+        <v>0.7501254230737686</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B116" t="n">
+        <v>0.7509144395589828</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B117" t="n">
+        <v>0.738925501704216</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B118" t="n">
+        <v>0.7340212017297745</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B119" t="n">
+        <v>0.7478757351636887</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B120" t="n">
+        <v>0.7409518510103226</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B121" t="n">
+        <v>0.7363831251859665</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B122" t="n">
+        <v>0.7395184189081192</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B123" t="n">
+        <v>0.736945316195488</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B124" t="n">
+        <v>0.7442034780979156</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B125" t="n">
+        <v>0.7535473555326462</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B126" t="n">
+        <v>0.7418792545795441</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B127" t="n">
+        <v>0.7329023629426956</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B128" t="n">
+        <v>0.74607153236866</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B129" t="n">
+        <v>0.7467661947011948</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B130" t="n">
+        <v>0.7501434832811356</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B131" t="n">
+        <v>0.7395449429750443</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B132" t="n">
+        <v>0.738946259021759</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B133" t="n">
+        <v>0.7321169525384903</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B134" t="n">
+        <v>0.7346039414405823</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="n">
+        <v>0.9822916666666667</v>
+      </c>
+      <c r="B135" t="n">
+        <v>0.7380242794752121</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B136" t="n">
+        <v>0.736263170838356</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B137" t="n">
+        <v>0.7552243620157242</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B138" t="n">
+        <v>0.746160700917244</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B139" t="n">
+        <v>0.7323876023292542</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B140" t="n">
+        <v>0.7419188767671585</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B141" t="n">
+        <v>0.7320046871900558</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B142" t="n">
+        <v>0.7371400445699692</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B143" t="n">
+        <v>0.7366501986980438</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B144" t="n">
+        <v>0.7462875097990036</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B145" t="n">
+        <v>0.73112952709198</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B146" t="n">
+        <v>0.74732705950737</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B147" t="n">
+        <v>0.7359118908643723</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B148" t="n">
+        <v>0.7332794815301895</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B149" t="n">
+        <v>0.7473187297582626</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="n">
+        <v>0.9670833333333334</v>
+      </c>
+      <c r="B150" t="n">
+        <v>0.735111340880394</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B151" t="n">
+        <v>0.7296351939439774</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B152" t="n">
+        <v>0.7338987439870834</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B153" t="n">
+        <v>0.7552497535943985</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B154" t="n">
+        <v>0.7243628799915314</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B155" t="n">
+        <v>0.7306502908468246</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B156" t="n">
+        <v>0.732800766825676</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B157" t="n">
+        <v>0.7285308092832565</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B158" t="n">
+        <v>0.7341370284557343</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B159" t="n">
+        <v>0.7411835938692093</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B160" t="n">
+        <v>0.7389745265245438</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B161" t="n">
+        <v>0.7272809594869614</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B162" t="n">
+        <v>0.7307869344949722</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B163" t="n">
+        <v>0.7365527153015137</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B164" t="n">
+        <v>0.735812708735466</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B165" t="n">
+        <v>0.740337073802948</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B166" t="n">
+        <v>0.7471296787261963</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B167" t="n">
+        <v>0.7286953032016754</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B168" t="n">
+        <v>0.7310277372598648</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B169" t="n">
+        <v>0.7281564921140671</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B170" t="n">
+        <v>0.7386168241500854</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B171" t="n">
+        <v>0.7289350479841232</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B172" t="n">
+        <v>0.723285049200058</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B173" t="n">
+        <v>0.7318727970123291</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B174" t="n">
+        <v>0.7276638895273209</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B175" t="n">
+        <v>0.7301550954580307</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B176" t="n">
+        <v>0.7241228818893433</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B177" t="n">
+        <v>0.7353686839342117</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B178" t="n">
+        <v>0.7299141734838486</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B179" t="n">
+        <v>0.7315770834684372</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B180" t="n">
+        <v>0.7293708324432373</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B181" t="n">
+        <v>0.7368296682834625</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B182" t="n">
+        <v>0.7233158499002457</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B183" t="n">
+        <v>0.727150559425354</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B184" t="n">
+        <v>0.7301068753004074</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B185" t="n">
+        <v>0.7291199862957001</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B186" t="n">
+        <v>0.7245422601699829</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B187" t="n">
+        <v>0.7229821085929871</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B188" t="n">
+        <v>0.7352703809738159</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B189" t="n">
+        <v>0.7254994511604309</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B190" t="n">
+        <v>0.7318810820579529</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B191" t="n">
+        <v>0.7184881716966629</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B192" t="n">
+        <v>0.7198751866817474</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B193" t="n">
+        <v>0.72659070789814</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B194" t="n">
+        <v>0.7302934676408768</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B195" t="n">
+        <v>0.7251446545124054</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B196" t="n">
+        <v>0.7229926586151123</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B197" t="n">
+        <v>0.7230905443429947</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B198" t="n">
+        <v>0.7302355617284775</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B199" t="n">
+        <v>0.7237859666347504</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B200" t="n">
+        <v>0.7222535014152527</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="n">
+        <v>0.9770833333333334</v>
+      </c>
+      <c r="B201" t="n">
+        <v>0.7200208306312561</v>
       </c>
     </row>
   </sheetData>
